--- a/hodlconvert.xlsx
+++ b/hodlconvert.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1565"/>
+  <dimension ref="A1:N1586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -71249,6 +71249,952 @@
         <v>-0.1994735561590829</v>
       </c>
     </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="n">
+        <v>1564</v>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>760488.70845305</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>162213.10498811</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>156598.19661798</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>220023.91303179</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>11527692.79947334</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>5632557.77801828</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>0.4886110235584706</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>603890.51183507</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>28498871.38125296</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>97784053.51619329</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0.2914470238905925</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>-0.1971639996678781</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="n">
+        <v>1565</v>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>668020.8494986499</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>204681.49226635</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>123328.13704514</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>250132.96960512</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>11531642.87906227</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>5663281.69614947</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>0.4911079674893641</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>544692.7124535099</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>28564151.79582615</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>98112481.81891456</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0.2911367775666585</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>-0.1999711899227056</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="n">
+        <v>1566</v>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>1286697.98667448</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>638724.20707493</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>157612.24870631</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>252859.08631179</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>11536181.39678707</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>5716188.84582006</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>0.4955009503761851</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>1129085.73796817</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>28622352.09501498</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>98965149.18543436</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0.2892164800498033</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>-0.2062844703263819</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="n">
+        <v>1567</v>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>636497.69828534</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>88042.75711553</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>133628.05957386</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>219931.82719452</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>11540458.88939005</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>5759232.0948972</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0.4990470613081136</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>502869.63871148</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>28616196.18938533</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>99193057.07173219</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0.2884899108280464</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>-0.2105571504800672</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="n">
+        <v>1568</v>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>567141.36327714</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>106293.42954795</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>121883.99000217</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>224081.10460892</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>11544857.08725167</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>5774734.25416778</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0.5001997175473476</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>445257.37327497</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>28624249.01084029</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>99387493.51207158</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0.2880065489061116</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>-0.212193168641236</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="n">
+        <v>1569</v>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>486756.74768467</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>87558.73543453999</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>106883.00917732</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>184437.44016681</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>11548867.51946996</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>5790028.98570599</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0.5013503684187838</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>379873.73850735</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>28583348.53098513</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>99500314.98199497</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0.2872689250899097</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>-0.2140814433288741</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="n">
+        <v>1570</v>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2020-05-27</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>626617.97573535</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>119244.50742428</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>127399.25804376</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>190363.95467511</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>11553517.68955901</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>5769430.60806174</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>0.4993657138098825</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>499218.7176915901</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>28565128.73387805</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>99668804.22313669</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0.286600496078261</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>-0.2127652177316215</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="n">
+        <v>1571</v>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2020-05-28</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>518154.38510017</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>110200.80834575</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>109157.67372326</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>272264.13431762</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>11558019.99570623</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>5756603.8141914</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>0.4980614167763995</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>408996.71137691</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>28638921.81739907</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>99767645.71344234</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0.2870562055724681</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>-0.2110052112039314</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="n">
+        <v>1572</v>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2020-05-29</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>3355947.27769686</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>1328740.4101894</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>44610.9758786</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>96967.12199766</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>11561734.70004084</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>5736274.99894238</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0.4961431089507803</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>3311336.30181826</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>28514248.51377851</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>102759467.0962936</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0.2774853677185621</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>-0.2186577412322183</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="n">
+        <v>1573</v>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2020-05-30</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>971101.33826136</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>344339.14538634</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>79010.23442521</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>150124.13525334</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>11565725.51765459</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>5714785.54455338</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>0.4941138829405905</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>892091.1038361499</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>28453127.30321271</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>103287604.5443439</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0.2754747525488123</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>-0.2186391303917782</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2020-05-31</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>603511.7555584999</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>128022.11286089</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>120158.45483228</v>
+      </c>
+      <c r="F1576" t="n">
+        <v>168908.64394059</v>
+      </c>
+      <c r="G1576" t="n">
+        <v>11570587.52547257</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>5667903.36430375</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>0.4898544133412326</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>483353.30072622</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>28438329.38844242</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>103512424.6894509</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0.2747334870549178</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>-0.2151209262863148</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="n">
+        <v>1575</v>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2020-06-01</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>663189.6252092</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>140616.41289467</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>190113.35207123</v>
+      </c>
+      <c r="F1577" t="n">
+        <v>309099.63490923</v>
+      </c>
+      <c r="G1577" t="n">
+        <v>11574857.84746268</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>5647153.84230808</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>0.487881053636092</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>473076.27313797</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>28532396.78689131</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>103685317.9964684</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0.2751826134907851</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>-0.2126984401453069</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="n">
+        <v>1576</v>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2020-06-02</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>3711993.91131167</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>616087.06575775</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>141822.86966455</v>
+      </c>
+      <c r="F1578" t="n">
+        <v>238486.98074705</v>
+      </c>
+      <c r="G1578" t="n">
+        <v>11578939.1193145</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>5730821.19746179</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0.4949349105655431</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>3570171.04164712</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>28634837.40777976</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>106909897.6770464</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0.2678408457024245</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>-0.2270940648631186</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="n">
+        <v>1577</v>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2020-06-03</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>1120231.45249598</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>329793.83678224</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>146787.65484985</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>254304.2055642</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>11583298.25228073</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>5778058.44635563</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>0.4988267003500441</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>973443.7976461301</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>28689114.77336958</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>107599404.3878065</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0.2666289366246781</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>-0.232197763725366</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="n">
+        <v>1578</v>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2020-06-04</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>1391875.95988601</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>409602.46106124</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>128459.47398231</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>350822.39383153</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>11587921.80146864</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>5816704.22812398</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>0.5019626752561255</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>1263416.4859037</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>28780519.39317576</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>108476972.3542794</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0.2653145526516012</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>-0.2366481226045243</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2020-06-05</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>795759.0069527799</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>250869.36422274</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>84075.67980862</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>91329.82786858</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>11591208.33077823</v>
+      </c>
+      <c r="H1581" t="n">
+        <v>5851130.27197847</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>0.504790363955578</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>711683.3271441599</v>
+      </c>
+      <c r="K1581" t="n">
+        <v>28679051.60491599</v>
+      </c>
+      <c r="L1581" t="n">
+        <v>104840686.0538348</v>
+      </c>
+      <c r="M1581" t="n">
+        <v>0.2735488738617138</v>
+      </c>
+      <c r="N1581" t="n">
+        <v>-0.2312414900938642</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="n">
+        <v>1580</v>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2020-06-06</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>645841.06651585</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>130208.34297623</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>144713.78019795</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>271977.49511844</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>11596402.54096439</v>
+      </c>
+      <c r="H1582" t="n">
+        <v>5847377.36044282</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0.5042406332297374</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>501127.2863179001</v>
+      </c>
+      <c r="K1582" t="n">
+        <v>28761867.48401511</v>
+      </c>
+      <c r="L1582" t="n">
+        <v>102835578.4600804</v>
+      </c>
+      <c r="M1582" t="n">
+        <v>0.2796879048546426</v>
+      </c>
+      <c r="N1582" t="n">
+        <v>-0.2245527283750948</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="n">
+        <v>1581</v>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2020-06-07</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>529108.10209143</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>114518.31452441</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>123618.85207495</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>188747.07930158</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>11600797.52697757</v>
+      </c>
+      <c r="H1583" t="n">
+        <v>5823574.43122436</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>0.5019977650400053</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>405489.25001648</v>
+      </c>
+      <c r="K1583" t="n">
+        <v>28711069.50282722</v>
+      </c>
+      <c r="L1583" t="n">
+        <v>102921277.6333394</v>
+      </c>
+      <c r="M1583" t="n">
+        <v>0.2789614563969114</v>
+      </c>
+      <c r="N1583" t="n">
+        <v>-0.2230363086430939</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="n">
+        <v>1582</v>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2020-06-08</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>562475.87258736</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>180955.34308731</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>97647.13805550001</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>89480.47556399999</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>11604412.11166647</v>
+      </c>
+      <c r="H1584" t="n">
+        <v>5802624.40941775</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>0.5000360512519281</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>464828.73453186</v>
+      </c>
+      <c r="K1584" t="n">
+        <v>28586840.44537206</v>
+      </c>
+      <c r="L1584" t="n">
+        <v>103104541.1687712</v>
+      </c>
+      <c r="M1584" t="n">
+        <v>0.2772607309175493</v>
+      </c>
+      <c r="N1584" t="n">
+        <v>-0.2227753203343788</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="n">
+        <v>1583</v>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2020-06-09</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>649247.9905615</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>184513.11769074</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>109040.15635323</v>
+      </c>
+      <c r="F1585" t="n">
+        <v>193650.0158681</v>
+      </c>
+      <c r="G1585" t="n">
+        <v>11608203.57138793</v>
+      </c>
+      <c r="H1585" t="n">
+        <v>5785289.23001308</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0.4983793740723798</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>540207.83420827</v>
+      </c>
+      <c r="K1585" t="n">
+        <v>28558980.31139078</v>
+      </c>
+      <c r="L1585" t="n">
+        <v>103348020.0612285</v>
+      </c>
+      <c r="M1585" t="n">
+        <v>0.2763379530103336</v>
+      </c>
+      <c r="N1585" t="n">
+        <v>-0.2220414210620462</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="n">
+        <v>1584</v>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2020-06-10</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>401702.78981451</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>75302.81764437001</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="inlineStr"/>
+      <c r="I1586" t="inlineStr"/>
+      <c r="J1586" t="inlineStr"/>
+      <c r="K1586" t="inlineStr"/>
+      <c r="L1586" t="inlineStr"/>
+      <c r="M1586" t="inlineStr"/>
+      <c r="N1586" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/hodlconvert.xlsx
+++ b/hodlconvert.xlsx
@@ -69018,16 +69018,36 @@
       <c r="D1586" t="n">
         <v>75302.81764437001</v>
       </c>
-      <c r="E1586" t="inlineStr"/>
-      <c r="F1586" t="inlineStr"/>
-      <c r="G1586" t="inlineStr"/>
-      <c r="H1586" t="inlineStr"/>
-      <c r="I1586" t="inlineStr"/>
-      <c r="J1586" t="inlineStr"/>
-      <c r="K1586" t="inlineStr"/>
-      <c r="L1586" t="inlineStr"/>
-      <c r="M1586" t="inlineStr"/>
-      <c r="N1586" t="inlineStr"/>
+      <c r="E1586" t="n">
+        <v>74567.66431445999</v>
+      </c>
+      <c r="F1586" t="n">
+        <v>193454.3963074</v>
+      </c>
+      <c r="G1586" t="n">
+        <v>11612369.99422581</v>
+      </c>
+      <c r="H1586" t="n">
+        <v>5776699.11906762</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>0.4974608216875671</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>327135.12550005</v>
+      </c>
+      <c r="K1586" t="n">
+        <v>28556902.8566801</v>
+      </c>
+      <c r="L1586" t="n">
+        <v>102574433.2501872</v>
+      </c>
+      <c r="M1586" t="n">
+        <v>0.2784017610609415</v>
+      </c>
+      <c r="N1586" t="n">
+        <v>-0.2190590606266256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
